--- a/config/itech-aurum/forms/contact/person-edit.xlsx
+++ b/config/itech-aurum/forms/contact/person-edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/contact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8819FD8-2F96-B74C-A013-D96B719BA394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C470638-1092-E748-96F7-10F0E7F24BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="5180" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Shona</t>
   </si>
   <si>
-    <t>facilities</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -149,12 +146,6 @@
     <t>enrollment_facility</t>
   </si>
   <si>
-    <t>enrollment_location</t>
-  </si>
-  <si>
-    <t>Specify Enrollment Location</t>
-  </si>
-  <si>
     <t>pages</t>
   </si>
   <si>
@@ -173,45 +164,15 @@
     <t>Must be 5 – 9 numeric digits</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>age_years</t>
-  </si>
-  <si>
-    <t>VMMC Client Age in Years</t>
-  </si>
-  <si>
-    <t>(.) &gt;= 18 and (.) &lt;= 75</t>
-  </si>
-  <si>
-    <t>Only 18 - 75 yrs old men can enroll.</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>enrollment_date</t>
-  </si>
-  <si>
-    <t>Enrollment Date</t>
-  </si>
-  <si>
-    <t>decimal-date-time(.) = floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t>Only today's date is allowed</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
     <t>Client Mobile phone number</t>
   </si>
   <si>
-    <t>regex(., '^\+263[0-9]{9}$')</t>
-  </si>
-  <si>
     <t>Please enter phone number in the format +263xxxxxxxxx</t>
   </si>
   <si>
@@ -242,270 +203,6 @@
     <t>end group</t>
   </si>
   <si>
-    <t>guruve_hospital</t>
-  </si>
-  <si>
-    <t>1. Guruve Hospital</t>
-  </si>
-  <si>
-    <t>bepura_clinic</t>
-  </si>
-  <si>
-    <t>2. Bepura Clinic</t>
-  </si>
-  <si>
-    <t>mhondoro_ngezi</t>
-  </si>
-  <si>
-    <t>3. Mhondoro Ngezi</t>
-  </si>
-  <si>
-    <t>michael_hospital</t>
-  </si>
-  <si>
-    <t>4. St Michael’s Hospital</t>
-  </si>
-  <si>
-    <t>turf_clinic</t>
-  </si>
-  <si>
-    <t>5. Turf Clinic</t>
-  </si>
-  <si>
-    <t>donain_clinic</t>
-  </si>
-  <si>
-    <t>6. Donain Clinic</t>
-  </si>
-  <si>
-    <t>matobo_district</t>
-  </si>
-  <si>
-    <t>7. Matobo District</t>
-  </si>
-  <si>
-    <t>maphisa_hospital</t>
-  </si>
-  <si>
-    <t>8. Maphisa Hospital</t>
-  </si>
-  <si>
-    <t>tshelanyemba_hospital</t>
-  </si>
-  <si>
-    <t>9. Tshelanyemba Hospital</t>
-  </si>
-  <si>
-    <t>joseph_hospital</t>
-  </si>
-  <si>
-    <t>10. St Joseph Hospital</t>
-  </si>
-  <si>
-    <t>matobo_rural_hospital</t>
-  </si>
-  <si>
-    <t>11. Matobo Rural Hospital</t>
-  </si>
-  <si>
-    <t>sanyati_baptist_hospital</t>
-  </si>
-  <si>
-    <t>12. Sanyati Baptist Hospital</t>
-  </si>
-  <si>
-    <t>chakari_clinic</t>
-  </si>
-  <si>
-    <t>13. Chakari Clinic</t>
-  </si>
-  <si>
-    <t>gokwe_district_hospital</t>
-  </si>
-  <si>
-    <t>14. Gokwe District Hospital</t>
-  </si>
-  <si>
-    <t>sai_clinic</t>
-  </si>
-  <si>
-    <t>15. Sai Clinic</t>
-  </si>
-  <si>
-    <t>kana_mission_hospital</t>
-  </si>
-  <si>
-    <t>16. Kana Mission Hospital</t>
-  </si>
-  <si>
-    <t>chidamoyo_mission_hospital</t>
-  </si>
-  <si>
-    <t>17. Chidamoyo Mission Hospital</t>
-  </si>
-  <si>
-    <t>hurungwe_rural_hospital</t>
-  </si>
-  <si>
-    <t>18. Hurungwe Rural Hospital</t>
-  </si>
-  <si>
-    <t>karoi_district_hospital</t>
-  </si>
-  <si>
-    <t>19. Karoi District Hospital</t>
-  </si>
-  <si>
-    <t>chitsungo_mission_hospital</t>
-  </si>
-  <si>
-    <t>20. Chitsungo Mission Hospital</t>
-  </si>
-  <si>
-    <t>mahuwe_rhc</t>
-  </si>
-  <si>
-    <t>21. Mahuwe RHC</t>
-  </si>
-  <si>
-    <t>luke_mission_hospital</t>
-  </si>
-  <si>
-    <t>22. St Luke's Mission Hospital</t>
-  </si>
-  <si>
-    <t>Paul_mission_hospital</t>
-  </si>
-  <si>
-    <t>23. Paul's Mission Hospital</t>
-  </si>
-  <si>
-    <t>seke_north</t>
-  </si>
-  <si>
-    <t>24. Chitungwiza-Seke North clinic</t>
-  </si>
-  <si>
-    <t>seke_south</t>
-  </si>
-  <si>
-    <t>25. Chitungwiza-Seke South clinic</t>
-  </si>
-  <si>
-    <t>city_med</t>
-  </si>
-  <si>
-    <t>26. Chitungwiza-City Med hospital</t>
-  </si>
-  <si>
-    <t>zengeza</t>
-  </si>
-  <si>
-    <t>27. Chitungwiza-Zengeza Clinic</t>
-  </si>
-  <si>
-    <t>chitungwiza_central</t>
-  </si>
-  <si>
-    <t>28. Chitungwiza-Chitungwiza Central Hospital</t>
-  </si>
-  <si>
-    <t>chegutu_norton</t>
-  </si>
-  <si>
-    <t>29. Chegutu- Norton hospital</t>
-  </si>
-  <si>
-    <t>chegutu_district</t>
-  </si>
-  <si>
-    <t>30. Chegutu- District Hospital</t>
-  </si>
-  <si>
-    <t>monera</t>
-  </si>
-  <si>
-    <t>31. Chegutu-Monera clinic(Norton Outreach)</t>
-  </si>
-  <si>
-    <t>marondera</t>
-  </si>
-  <si>
-    <t>32. Marondera- Marondera District Hospital</t>
-  </si>
-  <si>
-    <t>mahusekwa</t>
-  </si>
-  <si>
-    <t>33. Marondera- Mahusekwa Hospital</t>
-  </si>
-  <si>
-    <t>makumbe</t>
-  </si>
-  <si>
-    <t>34. Goromonzi-Makumbe Mission Hospital</t>
-  </si>
-  <si>
-    <t>ruwa</t>
-  </si>
-  <si>
-    <t>35. Goromonzi-Ruwa Rehab Hospital</t>
-  </si>
-  <si>
-    <t>kadoma</t>
-  </si>
-  <si>
-    <t>36. Sanyati-Kadoma Hospital</t>
-  </si>
-  <si>
-    <t>kadoma_city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. Sanyati-Kadoma City </t>
-  </si>
-  <si>
-    <t>ndanga</t>
-  </si>
-  <si>
-    <t>38. Zaka-Ndanga District Hospital</t>
-  </si>
-  <si>
-    <t>musiso</t>
-  </si>
-  <si>
-    <t>39. Zaka-Musiso Mission Hospital</t>
-  </si>
-  <si>
-    <t>mnene</t>
-  </si>
-  <si>
-    <t>40. Mberengwa-Mnene Mission Hospital</t>
-  </si>
-  <si>
-    <t>musume</t>
-  </si>
-  <si>
-    <t>41. Mberengwa-Musume Mission Hospital</t>
-  </si>
-  <si>
-    <t>mberengwa</t>
-  </si>
-  <si>
-    <t>42. Mberengwa-Mberengwa District Hospital</t>
-  </si>
-  <si>
-    <t>masase</t>
-  </si>
-  <si>
-    <t>43. Mberengwa-Masase Mission Hospital</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>44. Other</t>
-  </si>
-  <si>
     <t>ndebele</t>
   </si>
   <si>
@@ -521,7 +218,64 @@
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Which clinic? </t>
+    <t>VMMC enrollment facility</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>VMMC client date of birth</t>
+  </si>
+  <si>
+    <t>regex(., '^\+27[0-9]{9}$')</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>int((decimal-date-time(today()) - decimal-date-time(${dob}) ) div 365.25, 0)</t>
+  </si>
+  <si>
+    <t>Only 15 - 75 yrs old men can enroll.</t>
+  </si>
+  <si>
+    <t>is_minor</t>
+  </si>
+  <si>
+    <t>select_one phone_owner</t>
+  </si>
+  <si>
+    <t>phone_owner</t>
+  </si>
+  <si>
+    <t>Phone Owner</t>
+  </si>
+  <si>
+    <t>${is_minor}  =   'yes'</t>
+  </si>
+  <si>
+    <t>if((${age} &lt; 18 and ${age} &gt;= 15), 'yes', 'no')</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>${age} &gt;= 15 and ${age} &lt;= 75</t>
   </si>
 </sst>
 </file>
@@ -531,11 +285,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -604,8 +365,25 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +396,14 @@
         <bgColor rgb="FF2E75B6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -642,37 +426,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -903,8 +718,10 @@
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="64" customWidth="1"/>
-    <col min="10" max="18" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="38.5" customWidth="1"/>
+    <col min="10" max="10" width="48.83203125" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="18" width="13.5" customWidth="1"/>
     <col min="19" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,7 +756,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -994,22 +813,22 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1032,21 +851,21 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -1072,26 +891,26 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1115,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -1146,20 +965,20 @@
     </row>
     <row r="7" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A7" s="15" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1184,7 +1003,7 @@
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>1</v>
@@ -1192,7 +1011,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="7"/>
@@ -1218,7 +1037,7 @@
     </row>
     <row r="9" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1248,26 +1067,26 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1288,26 +1107,26 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1326,30 +1145,25 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="17" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1366,30 +1180,26 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:26" ht="20" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1406,29 +1216,27 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="16">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
+    <row r="14" spans="1:26" ht="24" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1446,28 +1254,28 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="16">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1488,23 +1296,27 @@
     </row>
     <row r="16" spans="1:26" ht="16">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1524,27 +1336,23 @@
     </row>
     <row r="17" spans="1:26" ht="16">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1564,17 +1372,27 @@
     </row>
     <row r="18" spans="1:26" ht="16">
       <c r="A18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1592,17 +1410,19 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+    <row r="19" spans="1:26" ht="16">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1615,8 +1435,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
@@ -1643,12 +1463,12 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="16">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1704,7 +1524,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+    <row r="23" spans="1:26" ht="16">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1732,7 +1552,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1819,7 +1639,7 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1844,10 +1664,10 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1872,9 +1692,36 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
@@ -2072,7 +1919,7 @@
     <row r="226" ht="12.75" customHeight="1"/>
     <row r="227" ht="12.75" customHeight="1"/>
     <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>
@@ -2847,6 +2694,7 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2858,8 +2706,8 @@
   <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2909,10 +2757,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -2938,50 +2786,78 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="16">
-      <c r="A6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="16">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3007,15 +2883,9 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -3041,15 +2911,9 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -3075,15 +2939,9 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -3109,15 +2967,9 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="12"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -3143,15 +2995,9 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="12"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -3177,15 +3023,9 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -3211,15 +3051,9 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>88</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -3245,15 +3079,9 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -3279,388 +3107,184 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>100</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>102</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>108</v>
-      </c>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>116</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>158</v>
-      </c>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
@@ -4624,16 +4248,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4648,19 +4272,19 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="10">
         <v>43936</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>

--- a/config/itech-aurum/forms/contact/person-edit.xlsx
+++ b/config/itech-aurum/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C470638-1092-E748-96F7-10F0E7F24BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802AFBBD-8D8C-7D49-8D27-12FDD06C9A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,12 +86,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>shona</t>
-  </si>
-  <si>
-    <t>Shona</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -203,12 +197,6 @@
     <t>end group</t>
   </si>
   <si>
-    <t>ndebele</t>
-  </si>
-  <si>
-    <t>Ndebele</t>
-  </si>
-  <si>
     <t>db:health_center</t>
   </si>
   <si>
@@ -276,6 +264,18 @@
   </si>
   <si>
     <t>${age} &gt;= 15 and ${age} &lt;= 75</t>
+  </si>
+  <si>
+    <t>afrikaans</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>setswana</t>
+  </si>
+  <si>
+    <t>Setswana</t>
   </si>
 </sst>
 </file>
@@ -705,9 +705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -813,22 +813,22 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -851,21 +851,21 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -891,26 +891,26 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -965,20 +965,20 @@
     </row>
     <row r="7" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A7" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>1</v>
@@ -1011,7 +1011,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="7"/>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="9" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1067,26 +1067,26 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1107,26 +1107,26 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="12" spans="1:26" ht="17" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>14</v>
@@ -1162,7 +1162,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="13" spans="1:26" ht="20" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>14</v>
@@ -1198,7 +1198,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1218,20 +1218,20 @@
     </row>
     <row r="14" spans="1:26" ht="24" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1256,26 +1256,26 @@
     </row>
     <row r="15" spans="1:26" ht="16">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1296,26 +1296,26 @@
     </row>
     <row r="16" spans="1:26" ht="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1336,18 +1336,18 @@
     </row>
     <row r="17" spans="1:26" ht="16">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1372,26 +1372,26 @@
     </row>
     <row r="18" spans="1:26" ht="16">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="19" spans="1:26" ht="16">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2707,7 +2707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2731,36 +2731,36 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
+      <c r="B3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="13" customFormat="1" ht="16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
+      <c r="B4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="5" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -2822,13 +2822,13 @@
     </row>
     <row r="6" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4248,16 +4248,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4272,19 +4272,19 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10">
         <v>43936</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>

--- a/config/itech-aurum/forms/contact/person-edit.xlsx
+++ b/config/itech-aurum/forms/contact/person-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802AFBBD-8D8C-7D49-8D27-12FDD06C9A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4D904-029B-8345-8CFC-1ECCC24BCD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>Setswana</t>
+  </si>
+  <si>
+    <t>sotho</t>
+  </si>
+  <si>
+    <t>Sotho</t>
+  </si>
+  <si>
+    <t>zulu</t>
+  </si>
+  <si>
+    <t>Zulu</t>
   </si>
 </sst>
 </file>
@@ -705,9 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2703,11 +2715,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C4"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2786,159 +2798,171 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="16">
       <c r="A5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" s="13" customFormat="1" ht="16">
+      <c r="A6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" s="13" customFormat="1" ht="16">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-    </row>
-    <row r="6" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="1:26" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-    </row>
-    <row r="7" spans="1:26" ht="16">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+    </row>
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3023,9 +3047,9 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -3051,9 +3075,9 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -3079,9 +3103,9 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="12"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -3111,92 +3135,161 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3282,13 +3375,25 @@
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+    </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="54" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
@@ -4221,6 +4326,9 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/config/itech-aurum/forms/contact/person-edit.xlsx
+++ b/config/itech-aurum/forms/contact/person-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D93DB1-8026-484B-A6F7-FE282A387312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B2F1E4-7BA4-774B-AE96-E11BFD717FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1140" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-2900" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Client Mobile phone number</t>
   </si>
   <si>
-    <t>Please enter phone number in the format +263xxxxxxxxx</t>
-  </si>
-  <si>
     <t>alternative_phone</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>enrolled_by</t>
+  </si>
+  <si>
+    <t>Please enter phone number in the format +27xxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -325,6 +325,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -686,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD9"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -736,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -926,7 +927,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
@@ -953,10 +954,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -966,10 +967,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -993,7 +994,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
@@ -1005,7 +1006,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1025,10 +1026,10 @@
     </row>
     <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>14</v>
@@ -1041,7 +1042,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1061,16 +1062,16 @@
     </row>
     <row r="10" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="14" t="s">
@@ -1115,10 +1116,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1142,23 +1143,23 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1179,13 +1180,13 @@
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1215,13 +1216,13 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1255,7 +1256,7 @@
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2589,10 +2590,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2600,10 +2601,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2634,10 +2635,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2668,10 +2669,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -2727,13 +2728,13 @@
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -2761,13 +2762,13 @@
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>

--- a/config/itech-aurum/forms/contact/person-edit.xlsx
+++ b/config/itech-aurum/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B2F1E4-7BA4-774B-AE96-E11BFD717FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CFD34-7EA9-B84D-9DAD-84E3E3BC53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2900" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>VMMC Client Number</t>
   </si>
   <si>
-    <t>Must be 5 – 9 numeric digits</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -266,13 +263,16 @@
     <t>Zulu</t>
   </si>
   <si>
-    <t>regex(., '^[0-9a-zA-Z]{5,9}$')</t>
-  </si>
-  <si>
     <t>enrolled_by</t>
   </si>
   <si>
     <t>Please enter phone number in the format +27xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>regex(., '^[\w-]{5,9}$')</t>
+  </si>
+  <si>
+    <t>Must be 5 – 9 alpha-numeric characters, cannot have white spaces</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -927,10 +927,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -951,13 +951,13 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -967,10 +967,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -994,7 +994,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
@@ -1006,7 +1006,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>14</v>
@@ -1042,7 +1042,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1062,16 +1062,16 @@
     </row>
     <row r="10" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="14" t="s">
@@ -1103,10 +1103,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1116,10 +1116,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1143,23 +1143,23 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2590,10 +2590,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -2601,10 +2601,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2635,10 +2635,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2669,10 +2669,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -2762,13 +2762,13 @@
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>

--- a/config/itech-aurum/forms/contact/person-edit.xlsx
+++ b/config/itech-aurum/forms/contact/person-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/contact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752CFD34-7EA9-B84D-9DAD-84E3E3BC53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5247586B-988A-7F4A-91FE-65051DC807B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2900" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,19 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhxE50lmiDDikQ5XQnYgO6cH2UVdw=="/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -269,10 +280,19 @@
     <t>Please enter phone number in the format +27xxxxxxxxx</t>
   </si>
   <si>
-    <t>regex(., '^[\w-]{5,9}$')</t>
-  </si>
-  <si>
     <t>Must be 5 – 9 alpha-numeric characters, cannot have white spaces</t>
+  </si>
+  <si>
+    <t>edited</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rp_phone</t>
+  </si>
+  <si>
+    <t>${phone}</t>
   </si>
 </sst>
 </file>
@@ -430,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,6 +488,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -926,11 +947,9 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1216,28 +1235,24 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1256,10 +1271,14 @@
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1267,7 +1286,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1284,17 +1305,29 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1307,22 +1340,24 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1335,12 +1370,12 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1363,12 +1398,12 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1396,7 +1431,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1424,7 +1459,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1452,7 +1487,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1511,7 +1546,7 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1536,7 +1571,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1564,10 +1599,64 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1764,8 +1853,8 @@
     <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2539,6 +2628,8 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
